--- a/Results/RQ4/time.xlsx
+++ b/Results/RQ4/time.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC6E34-E96F-49E6-A09D-F12B81DEEE67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715D9CF-45E3-47CD-868C-1BCA7EB3EA29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,10 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="11">
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,24 +45,20 @@
     <t>Average</t>
   </si>
   <si>
-    <t>(a) 3d-ascii-game</t>
-  </si>
-  <si>
-    <t>(b) itolapi</t>
-  </si>
-  <si>
-    <t>(c) koel</t>
-  </si>
-  <si>
-    <t>(d) mail_handler</t>
-  </si>
-  <si>
     <t>Time Spent Per Annotation (seconds)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Participant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(A) hony-random</t>
+  </si>
+  <si>
+    <t>(B) ipyrest</t>
+  </si>
+  <si>
+    <t>(C) lzdeb</t>
+  </si>
+  <si>
+    <t>(D) pendant</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -389,29 +389,30 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:D71"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -419,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -433,13 +434,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>41.54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -447,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>27.27</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -461,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -475,13 +476,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,13 +490,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>63.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -503,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>101.54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -517,13 +518,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>81.819999999999993</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -531,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -545,13 +546,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,13 +560,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>63.75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -573,13 +574,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>78.459999999999994</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>49.09</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -601,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>92.31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
-        <v>109.09</v>
+        <v>36.92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -671,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -685,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,13 +700,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1">
-        <v>63.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -713,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>69.23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -727,13 +728,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
-        <v>70.91</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -741,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -755,13 +756,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -769,13 +770,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>131.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -783,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
-        <v>110.77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -797,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
-        <v>147.27000000000001</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -811,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -825,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -839,13 +840,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
-        <v>52.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -853,13 +854,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
-        <v>69.23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -867,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
-        <v>54.55</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -881,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -895,27 +896,27 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1">
-        <v>52.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -923,13 +924,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
-        <v>55.38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -937,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
-        <v>43.64</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -951,13 +952,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -965,27 +966,27 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -993,13 +994,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1">
-        <v>41.54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1007,13 +1008,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1">
-        <v>16.36</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1021,13 +1022,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1035,13 +1036,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,13 +1050,13 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
-        <v>56.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1063,13 +1064,13 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1">
-        <v>55.38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,13 +1078,13 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
-        <v>32.729999999999997</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,13 +1092,13 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1105,13 +1106,13 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1133,13 +1134,13 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
-        <v>27.69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1147,13 +1148,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1">
-        <v>21.82</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,13 +1162,13 @@
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1175,13 +1176,13 @@
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,13 +1190,13 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1203,13 +1204,13 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1">
-        <v>55.38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1217,13 +1218,13 @@
         <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
-        <v>54.55</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,13 +1232,13 @@
         <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1245,13 +1246,13 @@
         <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,13 +1260,13 @@
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1">
-        <v>112.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1273,13 +1274,13 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1287,13 +1288,13 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1">
-        <v>76.36</v>
+        <v>36.92</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1301,13 +1302,13 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1315,13 +1316,13 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1329,13 +1330,13 @@
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1">
-        <v>63.75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1343,13 +1344,13 @@
         <v>14</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1">
-        <v>55.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1357,13 +1358,13 @@
         <v>14</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
-        <v>49.09</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1371,13 +1372,13 @@
         <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1385,13 +1386,13 @@
         <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
